--- a/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7704AD-D06B-8C4F-A963-C93FE3090497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1A9AB-4328-0F4A-8E43-3E459FD44090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPL Vorlage" sheetId="9" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Nr.</t>
   </si>
@@ -96,9 +96,6 @@
   <si>
     <t>zu
 erledigen bis</t>
-  </si>
-  <si>
-    <t>Merkel</t>
   </si>
   <si>
     <r>
@@ -310,21 +307,6 @@
     <t>alle</t>
   </si>
   <si>
-    <t>Thomas A.</t>
-  </si>
-  <si>
-    <t>Frauke B.</t>
-  </si>
-  <si>
-    <t>Sabine K.</t>
-  </si>
-  <si>
-    <t>Michael O.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN: </t>
-  </si>
-  <si>
     <t>Kick-Off-Meeting</t>
   </si>
   <si>
@@ -335,6 +317,18 @@
   </si>
   <si>
     <t>Marius Kurth</t>
+  </si>
+  <si>
+    <t>POC der APIs</t>
+  </si>
+  <si>
+    <t>Details s. Protokoll 15.05.2024</t>
+  </si>
+  <si>
+    <t>bis 24.05.2024</t>
+  </si>
+  <si>
+    <t>Design-Entwurf</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1479,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1504,7 @@
     <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22"/>
       <c r="B1" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -1527,13 +1521,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>2</v>
@@ -1557,13 +1551,13 @@
     </row>
     <row r="3" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="26"/>
@@ -1571,62 +1565,82 @@
         <v>45427</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="10"/>
       <c r="N3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="27"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="N4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="27"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="N5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1640,13 +1654,13 @@
       <c r="H6" s="3"/>
       <c r="J6" s="10"/>
       <c r="N6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2340,7 +2354,7 @@
   <dimension ref="C1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2351,38 +2365,34 @@
   <sheetData>
     <row r="1" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C8" s="8"/>
@@ -2445,20 +2455,81 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ed3b3e4c-9488-4b1c-9f3e-6d18d478a7c3" ContentTypeId="0x010100DA2BCA46EDEB4642AC63457AE234917801" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Value>6</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>8</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <g160457a8c434834a5b53f659fe1e746 xmlns="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Nicht zugeordnet</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c303b6eb-4f10-4121-a11e-bafbaa8ed95e</TermId>
+        </TermInfo>
+      </Terms>
+    </g160457a8c434834a5b53f659fe1e746>
+    <UIT_Projektnummer xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">1936</UIT_Projektnummer>
+    <TaxKeywordTaxHTField xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <d432c6d2d8d844e782d3944c98e74891 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C1</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">21a0c8e3-ddb0-46ee-ba05-3f67ebc4c672</TermId>
+        </TermInfo>
+      </Terms>
+    </d432c6d2d8d844e782d3944c98e74891>
+    <ifc6eb3f52e649b3b934c6ee22f60e94 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stäbe/IT</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">918b0a6e-6c10-4e87-b691-15d7a93b48c1</TermId>
+        </TermInfo>
+      </Terms>
+    </ifc6eb3f52e649b3b934c6ee22f60e94>
+    <UIT_Projektstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">Umsetzung aktiv</UIT_Projektstatus>
+    <ffeb0ce8d0664cc682573a89f4df646c xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Infrastruktur</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">84b02811-c171-46ba-9c59-667d2612ca5f</TermId>
+        </TermInfo>
+      </Terms>
+    </ffeb0ce8d0664cc682573a89f4df646c>
+    <Dokumentenstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">offen</Dokumentenstatus>
+    <me67adabb15c4c469550ce34f167698b xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Projekte</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4650438d-5fcd-44f4-ac37-1249f2cd8809</TermId>
+        </TermInfo>
+      </Terms>
+    </me67adabb15c4c469550ce34f167698b>
+    <UIT_Projektkoordinator xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <UserInfo>
+        <DisplayName>Hoeppener, Joachim (UIT)</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </UIT_Projektkoordinator>
+    <UIT_Projektkurzname xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">WorkIn</UIT_Projektkurzname>
+    <UIT_Projektleitung xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <UserInfo>
+        <DisplayName>Merkel, Frank (UIT)</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </UIT_Projektleitung>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Arbeitsdokument" ma:contentTypeID="0x010100DA2BCA46EDEB4642AC63457AE234917801002B0616426A3BB54080A66203D35FA55B" ma:contentTypeVersion="8" ma:contentTypeDescription="Inhaltstyp für Arbeitsdokumente im Projektraum" ma:contentTypeScope="" ma:versionID="6b9379cda9ace72b012619bd3b59ca51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="369aca94-4c50-4928-9ca5-72dc029195ff" xmlns:ns3="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32c192c1efd5bead4b33c440147ce62c" ns2:_="" ns3:_="">
     <xsd:import namespace="369aca94-4c50-4928-9ca5-72dc029195ff"/>
@@ -2736,98 +2807,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Value>6</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>8</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <g160457a8c434834a5b53f659fe1e746 xmlns="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Nicht zugeordnet</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c303b6eb-4f10-4121-a11e-bafbaa8ed95e</TermId>
-        </TermInfo>
-      </Terms>
-    </g160457a8c434834a5b53f659fe1e746>
-    <UIT_Projektnummer xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">1936</UIT_Projektnummer>
-    <TaxKeywordTaxHTField xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <d432c6d2d8d844e782d3944c98e74891 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C1</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">21a0c8e3-ddb0-46ee-ba05-3f67ebc4c672</TermId>
-        </TermInfo>
-      </Terms>
-    </d432c6d2d8d844e782d3944c98e74891>
-    <ifc6eb3f52e649b3b934c6ee22f60e94 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stäbe/IT</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">918b0a6e-6c10-4e87-b691-15d7a93b48c1</TermId>
-        </TermInfo>
-      </Terms>
-    </ifc6eb3f52e649b3b934c6ee22f60e94>
-    <UIT_Projektstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">Umsetzung aktiv</UIT_Projektstatus>
-    <ffeb0ce8d0664cc682573a89f4df646c xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Infrastruktur</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">84b02811-c171-46ba-9c59-667d2612ca5f</TermId>
-        </TermInfo>
-      </Terms>
-    </ffeb0ce8d0664cc682573a89f4df646c>
-    <Dokumentenstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">offen</Dokumentenstatus>
-    <me67adabb15c4c469550ce34f167698b xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Projekte</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4650438d-5fcd-44f4-ac37-1249f2cd8809</TermId>
-        </TermInfo>
-      </Terms>
-    </me67adabb15c4c469550ce34f167698b>
-    <UIT_Projektkoordinator xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <UserInfo>
-        <DisplayName>Hoeppener, Joachim (UIT)</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </UIT_Projektkoordinator>
-    <UIT_Projektkurzname xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">WorkIn</UIT_Projektkurzname>
-    <UIT_Projektleitung xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <UserInfo>
-        <DisplayName>Merkel, Frank (UIT)</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </UIT_Projektleitung>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ed3b3e4c-9488-4b1c-9f3e-6d18d478a7c3" ContentTypeId="0x010100DA2BCA46EDEB4642AC63457AE234917801" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B2B0E0-C5C4-4A25-ACB1-2FBEE9393F67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1C35BC-27AA-41CF-9154-D8424654DF68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="369aca94-4c50-4928-9ca5-72dc029195ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB098D-9F34-4534-AA48-089EB13C9C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB965-66FA-42E5-AABB-31E5CE688967}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2846,19 +2857,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB098D-9F34-4534-AA48-089EB13C9C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1C35BC-27AA-41CF-9154-D8424654DF68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B2B0E0-C5C4-4A25-ACB1-2FBEE9393F67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="369aca94-4c50-4928-9ca5-72dc029195ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1A9AB-4328-0F4A-8E43-3E459FD44090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFA053-EFD5-294B-BEC9-8D2D92178BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18400" yWindow="-23580" windowWidth="25620" windowHeight="18320" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPL Vorlage" sheetId="9" r:id="rId1"/>
@@ -46,12 +46,12 @@
     <definedName name="Priorität">#REF!</definedName>
     <definedName name="Status" localSheetId="0">#REF!</definedName>
     <definedName name="Status">#REF!</definedName>
-    <definedName name="STATUS2" localSheetId="0">'OPL Vorlage'!$O$3:$O$13</definedName>
+    <definedName name="STATUS2" localSheetId="0">'OPL Vorlage'!$O$3:$O$14</definedName>
     <definedName name="STATUS2">#REF!</definedName>
     <definedName name="STATUS3" localSheetId="0">'OPL Vorlage'!#REF!</definedName>
     <definedName name="STATUS3">#REF!</definedName>
     <definedName name="Typ">[2]Typ!$B$1:$B$4</definedName>
-    <definedName name="VERANTW" localSheetId="0">'OPL Vorlage'!$P$3:$P$13</definedName>
+    <definedName name="VERANTW" localSheetId="0">'OPL Vorlage'!$P$3:$P$14</definedName>
     <definedName name="VERANTW">#REF!</definedName>
     <definedName name="Verantwortlich" localSheetId="0">'OPL Vorlage'!#REF!</definedName>
     <definedName name="Verantwortlich">#REF!</definedName>
@@ -61,11 +61,24 @@
     <definedName name="Zeitraum">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Nr.</t>
   </si>
@@ -325,10 +338,61 @@
     <t>Details s. Protokoll 15.05.2024</t>
   </si>
   <si>
-    <t>bis 24.05.2024</t>
-  </si>
-  <si>
     <t>Design-Entwurf</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Recherche zu weiteren APIs</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Entscheidung, welche APIs verwendet werden sollen</t>
+  </si>
+  <si>
+    <t>Architekturplanung (1)</t>
+  </si>
+  <si>
+    <t>Architekturplanung (2)</t>
+  </si>
+  <si>
+    <t>Planungsmeeting</t>
+  </si>
+  <si>
+    <t>Details s. Protokoll 24.05.2024</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Start Entwicklung</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Erstellung Projekthandbuch-Template</t>
+  </si>
+  <si>
+    <t>Implementierung Landing-Page</t>
   </si>
 </sst>
 </file>
@@ -511,7 +575,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -588,9 +652,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1473,22 +1534,22 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="6" style="11" customWidth="1"/>
     <col min="8" max="8" width="9" style="8" customWidth="1"/>
@@ -1503,15 +1564,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:16" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
@@ -1556,20 +1617,14 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="5">
-        <v>45427</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="J3" s="10"/>
       <c r="N3" s="8" t="s">
         <v>16</v>
@@ -1582,25 +1637,24 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45436</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J4" s="10"/>
       <c r="N4" s="8" t="s">
@@ -1614,15 +1668,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
+      <c r="D5" s="12">
+        <v>45452</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="12"/>
@@ -1630,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J5" s="10"/>
       <c r="N5" s="8" t="s">
@@ -1644,14 +1700,20 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
       <c r="J6" s="10"/>
       <c r="N6" s="8" t="s">
         <v>19</v>
@@ -1664,80 +1726,154 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45444</v>
+      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12">
+        <v>45452</v>
+      </c>
+      <c r="E8" s="27"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45452</v>
+      </c>
+      <c r="E9" s="27"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45452</v>
+      </c>
       <c r="E10" s="28"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45474</v>
+      </c>
       <c r="E11" s="28"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="28"/>
+    <row r="13" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45480</v>
+      </c>
+      <c r="E13" s="27"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1745,7 +1881,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="21"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="3"/>
@@ -1773,24 +1909,23 @@
       <c r="H16" s="3"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="N17"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="6"/>
       <c r="C18" s="21"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="3"/>
@@ -1810,14 +1945,14 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
       <c r="N20"/>
       <c r="Q20" s="8"/>
     </row>
@@ -1826,26 +1961,26 @@
       <c r="B21" s="6"/>
       <c r="C21" s="21"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="3"/>
       <c r="N21"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
+    <row r="22" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="3"/>
       <c r="N22"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="6"/>
       <c r="C23" s="21"/>
@@ -1898,7 +2033,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="21"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="3"/>
@@ -1910,7 +2045,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="21"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="3"/>
@@ -1929,7 +2064,7 @@
       <c r="N29"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1941,7 +2076,7 @@
       <c r="N30"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
       <c r="B31" s="6"/>
       <c r="C31" s="21"/>
@@ -1953,7 +2088,7 @@
       <c r="N31"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
       <c r="B32" s="6"/>
       <c r="C32" s="21"/>
@@ -1965,7 +2100,7 @@
       <c r="N32"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
       <c r="B33" s="6"/>
       <c r="C33" s="21"/>
@@ -1977,7 +2112,7 @@
       <c r="N33"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="21"/>
@@ -1989,31 +2124,31 @@
       <c r="N34"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20"/>
       <c r="B35" s="6"/>
       <c r="C35" s="21"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="3"/>
       <c r="N35"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="3"/>
       <c r="N36"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20"/>
       <c r="B37" s="6"/>
       <c r="C37" s="21"/>
@@ -2025,133 +2160,58 @@
       <c r="N37"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="3"/>
+    <row r="38" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N38"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="3"/>
+    <row r="39" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N39"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
+    <row r="40" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N40"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="3"/>
+    <row r="41" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="N41"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="3"/>
+    <row r="42" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N42"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="3"/>
+    <row r="43" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N43"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="3"/>
+    <row r="44" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N44"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="3"/>
+    <row r="45" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N45"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="3"/>
+    <row r="46" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N46"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="3"/>
+    <row r="47" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N47"/>
       <c r="Q47" s="8"/>
     </row>
+    <row r="48" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="N48"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" collapsed="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A2:H4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate link="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C2 C4:C16">
+  <conditionalFormatting sqref="C1:C2 C4:C5">
     <cfRule type="containsText" dxfId="44" priority="2594" operator="containsText" text="UI">
       <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
     </cfRule>
@@ -2176,7 +2236,7 @@
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C16 C41:C1048576">
+  <conditionalFormatting sqref="C4:C5 C31:C1048576">
     <cfRule type="containsText" dxfId="37" priority="1505" operator="containsText" text="UI/PEI">
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
     </cfRule>
@@ -2190,100 +2250,100 @@
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
+  <conditionalFormatting sqref="C7:C11">
     <cfRule type="containsText" dxfId="33" priority="2112" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="2111" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="2110" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="2109" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="2108" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="2107" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="2106" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C29">
+  <conditionalFormatting sqref="C13:C19">
     <cfRule type="containsText" dxfId="26" priority="2091" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="2087" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="2088" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="2089" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="2090" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="2093" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="2092" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34 C36:C39">
+  <conditionalFormatting sqref="C21:C24 C26:C29">
     <cfRule type="containsText" dxfId="19" priority="2038" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="2040" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="2039" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C29">
+    <cfRule type="containsText" dxfId="16" priority="1904" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="1901" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="1900" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="1899" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="12" priority="1905" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="1902" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1903" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C1048576">
+    <cfRule type="containsText" dxfId="9" priority="2021" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2020" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2019" operator="containsText" text="UI">
       <formula>NOT(ISERROR(SEARCH("UI",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2040" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2039" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C31)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C39">
-    <cfRule type="containsText" dxfId="16" priority="1904" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1901" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="1900" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="1899" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="12" priority="1905" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1902" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1903" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:C1048576">
-    <cfRule type="containsText" dxfId="9" priority="2021" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2020" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2019" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G4 G17 G22 G30 G40 G48:G1048576">
+  <conditionalFormatting sqref="G1:G4 G6 G12 G20 G30 G38:G1048576">
     <cfRule type="containsText" dxfId="6" priority="2602" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",G1)))</formula>
     </cfRule>
@@ -2293,7 +2353,7 @@
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G22 G30 G40">
+  <conditionalFormatting sqref="G6 G12 G20 G30">
     <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
       <formula>"E"</formula>
     </cfRule>
@@ -2313,21 +2373,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4 G17 G22 G30 G40" xr:uid="{988C470B-43A2-4F1E-AF69-61339F9903BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4 G6 G12 G20 G30" xr:uid="{988C470B-43A2-4F1E-AF69-61339F9903BC}">
       <formula1>_TYP5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H21 H31:H39 H41:H47 H23:H29 H4:H16" xr:uid="{7E058E83-7669-4A07-B49E-15B96EAFD177}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11 H21:H29 H31:H37 H13:H19 H4:H5" xr:uid="{7E058E83-7669-4A07-B49E-15B96EAFD177}">
       <formula1>$O$3:$O$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H17 H22 H30 H40" xr:uid="{A1A45BEE-8172-4045-9D97-D5EED6489F01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H6 H12 H20 H30" xr:uid="{A1A45BEE-8172-4045-9D97-D5EED6489F01}">
       <formula1>STATUS3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G21 G23:G29 G31:G39 G41:G47 G5:G16" xr:uid="{25CBE60F-58E8-4B08-BC17-4225E15BADFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G11 G13:G19 G21:G29 G31:G37 G5" xr:uid="{25CBE60F-58E8-4B08-BC17-4225E15BADFB}">
       <formula1>$N$3:$N$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8&amp;Z
 &amp;F&amp;C&amp;8Seite &amp;P von &amp;N&amp;R&amp;8Erstellt: anl 05.08.2010
@@ -2340,7 +2400,7 @@
           <x14:formula1>
             <xm:f>Tabelle1!$C$2:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C47</xm:sqref>
+          <xm:sqref>C3:C37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2455,81 +2515,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Value>6</Value>
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>8</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <g160457a8c434834a5b53f659fe1e746 xmlns="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Nicht zugeordnet</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c303b6eb-4f10-4121-a11e-bafbaa8ed95e</TermId>
-        </TermInfo>
-      </Terms>
-    </g160457a8c434834a5b53f659fe1e746>
-    <UIT_Projektnummer xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">1936</UIT_Projektnummer>
-    <TaxKeywordTaxHTField xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <d432c6d2d8d844e782d3944c98e74891 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C1</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">21a0c8e3-ddb0-46ee-ba05-3f67ebc4c672</TermId>
-        </TermInfo>
-      </Terms>
-    </d432c6d2d8d844e782d3944c98e74891>
-    <ifc6eb3f52e649b3b934c6ee22f60e94 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stäbe/IT</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">918b0a6e-6c10-4e87-b691-15d7a93b48c1</TermId>
-        </TermInfo>
-      </Terms>
-    </ifc6eb3f52e649b3b934c6ee22f60e94>
-    <UIT_Projektstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">Umsetzung aktiv</UIT_Projektstatus>
-    <ffeb0ce8d0664cc682573a89f4df646c xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Infrastruktur</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">84b02811-c171-46ba-9c59-667d2612ca5f</TermId>
-        </TermInfo>
-      </Terms>
-    </ffeb0ce8d0664cc682573a89f4df646c>
-    <Dokumentenstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">offen</Dokumentenstatus>
-    <me67adabb15c4c469550ce34f167698b xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Projekte</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4650438d-5fcd-44f4-ac37-1249f2cd8809</TermId>
-        </TermInfo>
-      </Terms>
-    </me67adabb15c4c469550ce34f167698b>
-    <UIT_Projektkoordinator xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <UserInfo>
-        <DisplayName>Hoeppener, Joachim (UIT)</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </UIT_Projektkoordinator>
-    <UIT_Projektkurzname xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">WorkIn</UIT_Projektkurzname>
-    <UIT_Projektleitung xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
-      <UserInfo>
-        <DisplayName>Merkel, Frank (UIT)</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </UIT_Projektleitung>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Arbeitsdokument" ma:contentTypeID="0x010100DA2BCA46EDEB4642AC63457AE234917801002B0616426A3BB54080A66203D35FA55B" ma:contentTypeVersion="8" ma:contentTypeDescription="Inhaltstyp für Arbeitsdokumente im Projektraum" ma:contentTypeScope="" ma:versionID="6b9379cda9ace72b012619bd3b59ca51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="369aca94-4c50-4928-9ca5-72dc029195ff" xmlns:ns3="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32c192c1efd5bead4b33c440147ce62c" ns2:_="" ns3:_="">
     <xsd:import namespace="369aca94-4c50-4928-9ca5-72dc029195ff"/>
@@ -2807,7 +2792,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2816,29 +2801,87 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ed3b3e4c-9488-4b1c-9f3e-6d18d478a7c3" ContentTypeId="0x010100DA2BCA46EDEB4642AC63457AE234917801" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1C35BC-27AA-41CF-9154-D8424654DF68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="369aca94-4c50-4928-9ca5-72dc029195ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Value>6</Value>
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>8</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <g160457a8c434834a5b53f659fe1e746 xmlns="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Nicht zugeordnet</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c303b6eb-4f10-4121-a11e-bafbaa8ed95e</TermId>
+        </TermInfo>
+      </Terms>
+    </g160457a8c434834a5b53f659fe1e746>
+    <UIT_Projektnummer xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">1936</UIT_Projektnummer>
+    <TaxKeywordTaxHTField xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <d432c6d2d8d844e782d3944c98e74891 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">C1</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">21a0c8e3-ddb0-46ee-ba05-3f67ebc4c672</TermId>
+        </TermInfo>
+      </Terms>
+    </d432c6d2d8d844e782d3944c98e74891>
+    <ifc6eb3f52e649b3b934c6ee22f60e94 xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stäbe/IT</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">918b0a6e-6c10-4e87-b691-15d7a93b48c1</TermId>
+        </TermInfo>
+      </Terms>
+    </ifc6eb3f52e649b3b934c6ee22f60e94>
+    <UIT_Projektstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">Umsetzung aktiv</UIT_Projektstatus>
+    <ffeb0ce8d0664cc682573a89f4df646c xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Infrastruktur</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">84b02811-c171-46ba-9c59-667d2612ca5f</TermId>
+        </TermInfo>
+      </Terms>
+    </ffeb0ce8d0664cc682573a89f4df646c>
+    <Dokumentenstatus xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">offen</Dokumentenstatus>
+    <me67adabb15c4c469550ce34f167698b xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Projekte</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4650438d-5fcd-44f4-ac37-1249f2cd8809</TermId>
+        </TermInfo>
+      </Terms>
+    </me67adabb15c4c469550ce34f167698b>
+    <UIT_Projektkoordinator xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <UserInfo>
+        <DisplayName>Hoeppener, Joachim (UIT)</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </UIT_Projektkoordinator>
+    <UIT_Projektkurzname xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">WorkIn</UIT_Projektkurzname>
+    <UIT_Projektleitung xmlns="369aca94-4c50-4928-9ca5-72dc029195ff">
+      <UserInfo>
+        <DisplayName>Merkel, Frank (UIT)</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </UIT_Projektleitung>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB965-66FA-42E5-AABB-31E5CE688967}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2857,7 +2900,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB098D-9F34-4534-AA48-089EB13C9C50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2865,10 +2908,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B2B0E0-C5C4-4A25-ACB1-2FBEE9393F67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1C35BC-27AA-41CF-9154-D8424654DF68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="369aca94-4c50-4928-9ca5-72dc029195ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Offene_Punkteliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFA053-EFD5-294B-BEC9-8D2D92178BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1050887-8EB0-C54B-B1D0-BFDC9227F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="-23580" windowWidth="25620" windowHeight="18320" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35240" yWindow="-2820" windowWidth="30240" windowHeight="17440" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPL Vorlage" sheetId="9" r:id="rId1"/>
@@ -40,18 +40,18 @@
     <definedName name="gelöst" localSheetId="0">#REF!</definedName>
     <definedName name="gelöst">#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">'OPL Vorlage'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'OPL Vorlage'!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'OPL Vorlage'!$A$2:$H$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'OPL Vorlage'!$1:$2</definedName>
     <definedName name="Priorität" localSheetId="0">#REF!</definedName>
     <definedName name="Priorität">#REF!</definedName>
     <definedName name="Status" localSheetId="0">#REF!</definedName>
     <definedName name="Status">#REF!</definedName>
-    <definedName name="STATUS2" localSheetId="0">'OPL Vorlage'!$O$3:$O$14</definedName>
+    <definedName name="STATUS2" localSheetId="0">'OPL Vorlage'!$O$3:$O$15</definedName>
     <definedName name="STATUS2">#REF!</definedName>
     <definedName name="STATUS3" localSheetId="0">'OPL Vorlage'!#REF!</definedName>
     <definedName name="STATUS3">#REF!</definedName>
     <definedName name="Typ">[2]Typ!$B$1:$B$4</definedName>
-    <definedName name="VERANTW" localSheetId="0">'OPL Vorlage'!$P$3:$P$14</definedName>
+    <definedName name="VERANTW" localSheetId="0">'OPL Vorlage'!$P$3:$P$15</definedName>
     <definedName name="VERANTW">#REF!</definedName>
     <definedName name="Verantwortlich" localSheetId="0">'OPL Vorlage'!#REF!</definedName>
     <definedName name="Verantwortlich">#REF!</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Nr.</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Details s. Protokoll 15.05.2024</t>
   </si>
   <si>
-    <t>Design-Entwurf</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>Entscheidung, welche APIs verwendet werden sollen</t>
-  </si>
-  <si>
     <t>Architekturplanung (1)</t>
   </si>
   <si>
@@ -393,6 +387,21 @@
   </si>
   <si>
     <t>Implementierung Landing-Page</t>
+  </si>
+  <si>
+    <t>Entscheidung, welche APIs verwendet werden</t>
+  </si>
+  <si>
+    <t>Design-Entwurf + Entwurf des User-Flows</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Fragen an Röthig stellen</t>
+  </si>
+  <si>
+    <t>Fragen s. Protokoll 15.05.2024</t>
   </si>
 </sst>
 </file>
@@ -575,7 +584,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -656,6 +665,22 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -670,6 +695,18 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -703,18 +740,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -743,6 +768,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -750,6 +789,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -757,28 +810,31 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -795,6 +851,67 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -810,7 +927,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
@@ -821,6 +938,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -828,35 +952,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -906,7 +1002,31 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -923,6 +1043,25 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -938,77 +1077,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1020,57 +1088,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1534,13 +1559,13 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:H13"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="A2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1619,9 +1644,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="E3" s="26"/>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1638,7 +1661,7 @@
     </row>
     <row r="4" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>26</v>
@@ -1648,6 +1671,9 @@
       </c>
       <c r="D4" s="12">
         <v>45436</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="3" t="s">
@@ -1667,12 +1693,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>24</v>
@@ -1699,21 +1725,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+    <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="36">
+        <v>45439</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="N6" s="8" t="s">
         <v>19</v>
@@ -1726,45 +1760,39 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>45444</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12">
-        <v>45452</v>
-      </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
@@ -1773,13 +1801,13 @@
     </row>
     <row r="9" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="12">
         <v>45452</v>
@@ -1794,97 +1822,109 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12">
         <v>45452</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="12">
-        <v>45474</v>
+        <v>45452</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="34" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45474</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" ht="24" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>45480</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="12"/>
       <c r="E14" s="27"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:16" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1892,7 +1932,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="21"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="3"/>
@@ -1920,7 +1960,7 @@
       <c r="H17" s="3"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="13" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="6"/>
       <c r="C18" s="21"/>
@@ -1929,15 +1969,14 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="3"/>
-      <c r="N18"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="6"/>
       <c r="C19" s="21"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="3"/>
@@ -1945,26 +1984,26 @@
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="3"/>
       <c r="N20"/>
       <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4"/>
       <c r="N21"/>
       <c r="Q21" s="8"/>
     </row>
@@ -1980,7 +2019,7 @@
       <c r="N22"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
       <c r="B23" s="6"/>
       <c r="C23" s="21"/>
@@ -1992,7 +2031,7 @@
       <c r="N23"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="6"/>
       <c r="C24" s="21"/>
@@ -2009,7 +2048,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="21"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="3"/>
@@ -2033,7 +2072,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="21"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="3"/>
@@ -2065,30 +2104,30 @@
       <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="3"/>
       <c r="N30"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="3"/>
+    <row r="31" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4"/>
       <c r="N31"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
       <c r="B32" s="6"/>
       <c r="C32" s="21"/>
@@ -2161,6 +2200,14 @@
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="3"/>
       <c r="N38"/>
       <c r="Q38" s="8"/>
     </row>
@@ -2172,11 +2219,11 @@
       <c r="N40"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="N41"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="13" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="N42"/>
       <c r="Q42" s="8"/>
     </row>
@@ -2204,7 +2251,11 @@
       <c r="N48"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="14:17" ht="13" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="N49"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="14:17" collapsed="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A2:H4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate link="1"/>
@@ -2215,174 +2266,174 @@
     <cfRule type="containsText" dxfId="44" priority="2594" operator="containsText" text="UI">
       <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2596" operator="containsText" text="PEI">
+    <cfRule type="containsText" dxfId="43" priority="2595" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2596" operator="containsText" text="PEI">
       <formula>NOT(ISERROR(SEARCH("PEI",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2595" operator="containsText" text="UI/PEI">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C2 C4:C5">
+    <cfRule type="containsText" dxfId="41" priority="2590" operator="containsText" text="UI/PEI">
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
-    <cfRule type="containsText" dxfId="41" priority="2591" operator="containsText" text="UI">
+    <cfRule type="containsText" dxfId="40" priority="2591" operator="containsText" text="UI">
       <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2592" operator="containsText" text="PEI">
+    <cfRule type="containsText" dxfId="39" priority="2592" operator="containsText" text="PEI">
       <formula>NOT(ISERROR(SEARCH("PEI",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="2590" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="2593" operator="containsText" text="UI/PEI">
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C31:C1048576">
+  <conditionalFormatting sqref="C32:C1048576">
     <cfRule type="containsText" dxfId="37" priority="1505" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="1506" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="1507" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PEI",C32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="1510" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C11">
-    <cfRule type="containsText" dxfId="33" priority="2112" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2111" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="2110" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
+  <conditionalFormatting sqref="C8:C12">
+    <cfRule type="containsText" dxfId="33" priority="2106" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="2107" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="2108" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="2109" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="2108" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2107" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="2106" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="2110" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="2111" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="2112" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C19">
-    <cfRule type="containsText" dxfId="26" priority="2091" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2087" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2088" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2089" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2090" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="2093" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2092" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
+  <conditionalFormatting sqref="C14:C20">
+    <cfRule type="containsText" dxfId="26" priority="2087" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="2088" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="2089" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="2090" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2091" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="2092" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="2093" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C24 C26:C29">
+  <conditionalFormatting sqref="C22:C25 C27:C30">
     <cfRule type="containsText" dxfId="19" priority="2038" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2040" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2039" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="2039" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="2040" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C29">
-    <cfRule type="containsText" dxfId="16" priority="1904" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1901" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="1900" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="1899" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C21)))</formula>
+  <conditionalFormatting sqref="C22:C30">
+    <cfRule type="containsText" dxfId="16" priority="1899" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="1900" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="1901" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="1904" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="12" priority="1905" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1902" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="1903" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C25)))</formula>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="12" priority="1902" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="1903" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1905" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C1048576">
-    <cfRule type="containsText" dxfId="9" priority="2021" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C31)))</formula>
+  <conditionalFormatting sqref="C32:C1048576">
+    <cfRule type="containsText" dxfId="9" priority="2019" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="2020" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2019" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2021" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G4 G6 G12 G20 G30 G38:G1048576">
+  <conditionalFormatting sqref="G1:G5 G7 G13 G21 G31 G39:G1048576">
     <cfRule type="containsText" dxfId="6" priority="2602" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
+  <conditionalFormatting sqref="G3:G5">
     <cfRule type="cellIs" dxfId="5" priority="2597" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G12 G20 G30">
+  <conditionalFormatting sqref="G7 G13 G21 G31">
     <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="ü">
+      <formula>NOT(ISERROR(SEARCH("ü",H1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+      <formula>"iB"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="35" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",H1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>"erl"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="35" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",H1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
-      <formula>"iB"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="ü">
-      <formula>NOT(ISERROR(SEARCH("ü",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4 G6 G12 G20 G30" xr:uid="{988C470B-43A2-4F1E-AF69-61339F9903BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7 G13 G21 G31" xr:uid="{988C470B-43A2-4F1E-AF69-61339F9903BC}">
       <formula1>_TYP5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11 H21:H29 H31:H37 H13:H19 H4:H5" xr:uid="{7E058E83-7669-4A07-B49E-15B96EAFD177}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H7 H13 H21 H31" xr:uid="{A1A45BEE-8172-4045-9D97-D5EED6489F01}">
+      <formula1>STATUS3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12 H4:H6 H22:H30 H32:H38 H14:H20" xr:uid="{7E058E83-7669-4A07-B49E-15B96EAFD177}">
       <formula1>$O$3:$O$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H6 H12 H20 H30" xr:uid="{A1A45BEE-8172-4045-9D97-D5EED6489F01}">
-      <formula1>STATUS3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G11 G13:G19 G21:G29 G31:G37 G5" xr:uid="{25CBE60F-58E8-4B08-BC17-4225E15BADFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G12 G14:G20 G22:G30 G32:G38 G5" xr:uid="{25CBE60F-58E8-4B08-BC17-4225E15BADFB}">
       <formula1>$N$3:$N$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -2400,7 +2451,7 @@
           <x14:formula1>
             <xm:f>Tabelle1!$C$2:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C37</xm:sqref>
+          <xm:sqref>C7:C38 C3:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2515,6 +2566,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ed3b3e4c-9488-4b1c-9f3e-6d18d478a7c3" ContentTypeId="0x010100DA2BCA46EDEB4642AC63457AE234917801" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Arbeitsdokument" ma:contentTypeID="0x010100DA2BCA46EDEB4642AC63457AE234917801002B0616426A3BB54080A66203D35FA55B" ma:contentTypeVersion="8" ma:contentTypeDescription="Inhaltstyp für Arbeitsdokumente im Projektraum" ma:contentTypeScope="" ma:versionID="6b9379cda9ace72b012619bd3b59ca51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="369aca94-4c50-4928-9ca5-72dc029195ff" xmlns:ns3="14aa5bc9-86d3-4ab5-8fe5-a5dc8f7f2173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32c192c1efd5bead4b33c440147ce62c" ns2:_="" ns3:_="">
     <xsd:import namespace="369aca94-4c50-4928-9ca5-72dc029195ff"/>
@@ -2792,20 +2857,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ed3b3e4c-9488-4b1c-9f3e-6d18d478a7c3" ContentTypeId="0x010100DA2BCA46EDEB4642AC63457AE234917801" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2882,6 +2933,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B2B0E0-C5C4-4A25-ACB1-2FBEE9393F67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB098D-9F34-4534-AA48-089EB13C9C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13DB965-66FA-42E5-AABB-31E5CE688967}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2896,22 +2963,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EB098D-9F34-4534-AA48-089EB13C9C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25B2B0E0-C5C4-4A25-ACB1-2FBEE9393F67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
